--- a/ULTRA-X Project/create_XLSX_file/src/libs/evidence/evidence-pdf-info.xlsx
+++ b/ULTRA-X Project/create_XLSX_file/src/libs/evidence/evidence-pdf-info.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -449,9 +449,78 @@
         <v>44907.53822916667</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3">
+        <v>232</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="str">
+        <v>"\"E:\\\\Node-JS\\\\Node-JS\\\\ULTRA-X Project\\\\Evidence PDF_update\\\\src\\\\libs\\\\evidence-pdf\\\\evidence-PDF\"\"Evidence-PDF _ 2.pdf\"\".pdf\"\"Evidence-PDF _ 2\"493141"</v>
+      </c>
+      <c r="D3" t="str">
+        <v>Evidence-PDF _ 2.pdf</v>
+      </c>
+      <c r="E3" t="str">
+        <v>E:\Node-JS\Node-JS\ULTRA-X Project\Evidence PDF_update\src\libs\evidence-pdf\evidence-PDF\Evidence-PDF _ 2.pdf</v>
+      </c>
+      <c r="F3" s="1">
+        <v>44908.63167824074</v>
+      </c>
+      <c r="G3" s="1">
+        <v>44908.63167824074</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>233</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="str">
+        <v>"\"E:\\\\Node-JS\\\\Node-JS\\\\ULTRA-X Project\\\\Evidence PDF_update\\\\src\\\\libs\\\\evidence-pdf\\\\evidence-PDF\"\"Evidence-PDF _ 1.pdf\"\".pdf\"\"Evidence-PDF _ 1\"493139"</v>
+      </c>
+      <c r="D4" t="str">
+        <v>Evidence-PDF _ 1.pdf</v>
+      </c>
+      <c r="E4" t="str">
+        <v>E:\Node-JS\Node-JS\ULTRA-X Project\Evidence PDF_update\src\libs\evidence-pdf\evidence-PDF\Evidence-PDF _ 1.pdf</v>
+      </c>
+      <c r="F4" s="1">
+        <v>44908.63240740741</v>
+      </c>
+      <c r="G4" s="1">
+        <v>44908.63240740741</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>234</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="str">
+        <v>"\"E:\\\\Node-JS\\\\Node-JS\\\\ULTRA-X Project\\\\Evidence PDF_update\\\\src\\\\libs\\\\evidence-pdf\\\\evidence-PDF\"\"Evidence-PDF _ 2.pdf\"\".pdf\"\"Evidence-PDF _ 2\"493140"</v>
+      </c>
+      <c r="D5" t="str">
+        <v>Evidence-PDF _ 2.pdf</v>
+      </c>
+      <c r="E5" t="str">
+        <v>E:\Node-JS\Node-JS\ULTRA-X Project\Evidence PDF_update\src\libs\evidence-pdf\evidence-PDF\Evidence-PDF _ 2.pdf</v>
+      </c>
+      <c r="F5" s="1">
+        <v>44908.63240740741</v>
+      </c>
+      <c r="G5" s="1">
+        <v>44908.63240740741</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G5"/>
   </ignoredErrors>
 </worksheet>
 </file>